--- a/files/colored_sequence_PLOT3.xlsx
+++ b/files/colored_sequence_PLOT3.xlsx
@@ -1,73 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/75f1ddce899a9450/デスクトップ/test2024/files/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_2B59C097555ADDB3FDDC02F0464C303672B3F165" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB372D47-C450-4910-A1F8-AA8AFB429796}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView minimized="1" xWindow="984" yWindow="2652" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>スタート時間</t>
-  </si>
-  <si>
-    <t>終了時間</t>
-  </si>
-  <si>
-    <t>サイクルタイム</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -86,22 +47,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -389,151 +409,170 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>スタート時間</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>終了時間</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>サイクルタイム</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="1" t="n">
+        <v>0.5016319444444445</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0.5076620370370371</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B3" s="1" t="n">
+        <v>0.5142708333333333</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0.5200694444444445</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.50163194444444448</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.50766203703703705</v>
-      </c>
-      <c r="D2" s="1">
-        <f>C2-B2</f>
-        <v>6.030092592592573E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.51427083333333334</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.52006944444444447</v>
-      </c>
-      <c r="D3" s="1">
-        <f t="shared" ref="D3:D9" si="0">C3-B3</f>
-        <v>5.7986111111111294E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.52240740740740743</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4" s="1" t="n">
+        <v>0.5224074074074074</v>
+      </c>
+      <c r="C4" s="1" t="n">
         <v>0.5306481481481482</v>
       </c>
-      <c r="D4" s="1">
-        <f t="shared" si="0"/>
-        <v>8.2407407407407707E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>0.53195601851851848</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.53855324074074074</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" si="0"/>
-        <v>6.5972222222222543E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="B5" s="1" t="n">
+        <v>0.5319560185185185</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0.5385532407407407</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>0.54180555555555554</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.55035879629629625</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>8.5532407407407085E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="B6" s="1" t="n">
+        <v>0.5418055555555555</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0.5503587962962962</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>0.59459490740740739</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.60076388888888888</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" si="0"/>
-        <v>6.1689814814814836E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="B7" s="1" t="n">
+        <v>0.5945949074074074</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0.6007638888888889</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="1" t="n">
         <v>0.6347800925925926</v>
       </c>
-      <c r="C8" s="1">
-        <v>0.64037037037037037</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" si="0"/>
-        <v>5.5902777777777635E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="C8" s="1" t="n">
+        <v>0.6403703703703704</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>0.66123842592592597</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="B9" s="1" t="n">
+        <v>0.661238425925926</v>
+      </c>
+      <c r="C9" s="1" t="n">
         <v>0.6684606481481481</v>
       </c>
-      <c r="D9" s="1">
-        <f t="shared" si="0"/>
-        <v>7.22222222222213E-3</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10:24</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/files/colored_sequence_PLOT3.xlsx
+++ b/files/colored_sequence_PLOT3.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,6 +443,11 @@
           <t>サイクルタイム</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>日付</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -459,20 +464,30 @@
           <t>8:41</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2024/08/31</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>0.5142708333333333</v>
+        <v>0.5154745370370371</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>0.5200694444444445</v>
+        <v>0.5224074074074074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8:21</t>
+          <t>9:59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2024/08/31</t>
         </is>
       </c>
     </row>
@@ -481,14 +496,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>0.5224074074074074</v>
+        <v>0.524375</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>0.5306481481481482</v>
+        <v>0.5330092592592592</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>12:26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2024/08/31</t>
         </is>
       </c>
     </row>
@@ -497,14 +517,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>0.5319560185185185</v>
+        <v>0.5385532407407407</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>0.5385532407407407</v>
+        <v>0.544212962962963</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9:30</t>
+          <t>8:09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2024/08/31</t>
         </is>
       </c>
     </row>
@@ -513,14 +538,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>0.5418055555555555</v>
+        <v>0.5945949074074074</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>0.5503587962962962</v>
+        <v>0.6007638888888889</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>8:53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2024/08/31</t>
         </is>
       </c>
     </row>
@@ -529,14 +559,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>0.5945949074074074</v>
+        <v>0.6353935185185186</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>0.6007638888888889</v>
+        <v>0.661238425925926</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8:53</t>
+          <t>37:13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2024/08/31</t>
         </is>
       </c>
     </row>
@@ -545,14 +580,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>0.6347800925925926</v>
+        <v>0.6628587962962963</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>0.6403703703703704</v>
+        <v>0.5027083333333333</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8:03</t>
+          <t>1209:23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2024/08/31</t>
         </is>
       </c>
     </row>
@@ -561,14 +601,124 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="n">
+        <v>0.5076620370370371</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0.5164004629629629</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12:35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2024/09/01</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>0.5224074074074074</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>0.5306481481481482</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11:52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2024/09/01</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>0.5330092592592592</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>0.5418055555555555</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12:40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2024/09/01</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>0.544212962962963</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>0.5950462962962964</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>73:12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2024/09/01</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>0.6007638888888889</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>0.6371875</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>52:27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2024/09/01</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="n">
         <v>0.661238425925926</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C14" s="1" t="n">
         <v>0.6684606481481481</v>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>10:24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2024/09/01</t>
         </is>
       </c>
     </row>

--- a/files/colored_sequence_PLOT3.xlsx
+++ b/files/colored_sequence_PLOT3.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,14 +475,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>0.5154745370370371</v>
+        <v>0.5142708333333333</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>0.5224074074074074</v>
+        <v>0.5200694444444445</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9:59</t>
+          <t>8:21</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -496,14 +496,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>0.524375</v>
+        <v>0.5224074074074074</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>0.5330092592592592</v>
+        <v>0.5306481481481482</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -517,14 +517,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="n">
+        <v>0.5319560185185185</v>
+      </c>
+      <c r="C5" s="1" t="n">
         <v>0.5385532407407407</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>0.544212962962963</v>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8:09</t>
+          <t>9:30</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -538,14 +538,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>0.5945949074074074</v>
+        <v>0.5418055555555555</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>0.6007638888888889</v>
+        <v>0.5503587962962962</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8:53</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -559,14 +559,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>0.6353935185185186</v>
+        <v>0.5945949074074074</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>0.661238425925926</v>
+        <v>0.6007638888888889</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>37:13</t>
+          <t>8:53</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -580,14 +580,14 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>0.6628587962962963</v>
+        <v>0.6347800925925926</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>0.5027083333333333</v>
+        <v>0.6403703703703704</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1209:23</t>
+          <t>8:03</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -601,19 +601,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>0.5076620370370371</v>
+        <v>0.661238425925926</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>0.5164004629629629</v>
+        <v>0.6684606481481481</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024/09/01</t>
+          <t>2024/08/31</t>
         </is>
       </c>
     </row>
@@ -622,14 +622,14 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>0.5224074074074074</v>
+        <v>0.5016319444444445</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>0.5306481481481482</v>
+        <v>0.5076620370370371</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>8:41</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -643,14 +643,14 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>0.5330092592592592</v>
+        <v>0.5142708333333333</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>0.5418055555555555</v>
+        <v>0.5200694444444445</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>12:40</t>
+          <t>8:21</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -664,14 +664,14 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>0.544212962962963</v>
+        <v>0.5224074074074074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>0.5950462962962964</v>
+        <v>0.5306481481481482</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>73:12</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -685,14 +685,14 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>0.6007638888888889</v>
+        <v>0.5319560185185185</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>0.6371875</v>
+        <v>0.5385532407407407</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>52:27</t>
+          <t>9:30</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -706,14 +706,14 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>0.661238425925926</v>
+        <v>0.5418055555555555</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>0.6684606481481481</v>
+        <v>0.5503587962962962</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -727,19 +727,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>0.5027083333333333</v>
+        <v>0.5945949074074074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>0.5142708333333333</v>
+        <v>0.6007638888888889</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>16:39</t>
+          <t>8:53</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2024/09/02</t>
+          <t>2024/09/01</t>
         </is>
       </c>
     </row>
@@ -748,19 +748,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>0.5164004629629629</v>
+        <v>0.6347800925925926</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>0.5234953703703704</v>
+        <v>0.6403703703703704</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>10:13</t>
+          <t>8:03</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2024/09/02</t>
+          <t>2024/09/01</t>
         </is>
       </c>
     </row>
@@ -769,19 +769,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>0.5306481481481482</v>
+        <v>0.661238425925926</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>0.5339236111111111</v>
+        <v>0.6684606481481481</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4:43</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2024/09/02</t>
+          <t>2024/09/01</t>
         </is>
       </c>
     </row>
@@ -790,14 +790,14 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>0.5418055555555555</v>
+        <v>0.5016319444444445</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>0.5503587962962962</v>
+        <v>0.5076620370370371</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>8:41</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -811,14 +811,14 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>0.5950462962962964</v>
+        <v>0.5142708333333333</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>0.6347800925925926</v>
+        <v>0.5200694444444445</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>57:13</t>
+          <t>8:21</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -832,14 +832,14 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>0.6371875</v>
+        <v>0.5224074074074074</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>0.6618055555555555</v>
+        <v>0.5306481481481482</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>35:27</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -853,14 +853,14 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>0.6684606481481481</v>
+        <v>0.5319560185185185</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>0.5069212962962963</v>
+        <v>0.5385532407407407</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1207:23</t>
+          <t>9:30</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -874,14 +874,14 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>0.5142708333333333</v>
+        <v>0.5418055555555555</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>0.5200694444444445</v>
+        <v>0.5503587962962962</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>8:21</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -895,14 +895,14 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>0.5234953703703704</v>
+        <v>0.5945949074074074</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>0.5319560185185185</v>
+        <v>0.6007638888888889</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>8:53</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -916,14 +916,14 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="n">
-        <v>0.5339236111111111</v>
+        <v>0.6347800925925926</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>0.5430324074074074</v>
+        <v>0.6403703703703704</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>13:07</t>
+          <t>8:03</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -937,14 +937,14 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="n">
-        <v>0.5503587962962962</v>
+        <v>0.661238425925926</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>0.597025462962963</v>
+        <v>0.6684606481481481</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>67:12</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -958,14 +958,14 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>0.6347800925925926</v>
+        <v>0.5016319444444445</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>0.6403703703703704</v>
+        <v>0.5076620370370371</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>8:03</t>
+          <t>8:41</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -979,14 +979,14 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>0.6618055555555555</v>
+        <v>0.5142708333333333</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>0.5016319444444445</v>
+        <v>0.5200694444444445</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1209:21</t>
+          <t>8:21</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1000,19 +1000,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="n">
-        <v>0.5069212962962963</v>
+        <v>0.5224074074074074</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>0.5154745370370371</v>
+        <v>0.5306481481481482</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2024/09/03</t>
+          <t>2024/09/02</t>
         </is>
       </c>
     </row>
@@ -1021,19 +1021,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>0.5200694444444445</v>
+        <v>0.5319560185185185</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>0.524375</v>
+        <v>0.5385532407407407</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>6:12</t>
+          <t>9:30</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2024/09/03</t>
+          <t>2024/09/02</t>
         </is>
       </c>
     </row>
@@ -1042,19 +1042,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>0.5319560185185185</v>
+        <v>0.5418055555555555</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>0.5385532407407407</v>
+        <v>0.5503587962962962</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>9:30</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2024/09/03</t>
+          <t>2024/09/02</t>
         </is>
       </c>
     </row>
@@ -1063,19 +1063,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>0.5430324074074074</v>
+        <v>0.5945949074074074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>0.5945949074074074</v>
+        <v>0.6007638888888889</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>74:15</t>
+          <t>8:53</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2024/09/03</t>
+          <t>2024/09/02</t>
         </is>
       </c>
     </row>
@@ -1084,19 +1084,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>0.597025462962963</v>
+        <v>0.6347800925925926</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>0.6353935185185186</v>
+        <v>0.6403703703703704</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>55:15</t>
+          <t>8:03</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2024/09/03</t>
+          <t>2024/09/02</t>
         </is>
       </c>
     </row>
@@ -1105,19 +1105,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>0.6403703703703704</v>
+        <v>0.661238425925926</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>0.6628587962962963</v>
+        <v>0.6684606481481481</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>32:23</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2024/09/03</t>
+          <t>2024/09/02</t>
         </is>
       </c>
     </row>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2024/09/04</t>
+          <t>2024/09/03</t>
         </is>
       </c>
     </row>
@@ -1147,19 +1147,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>0.5154745370370371</v>
+        <v>0.5142708333333333</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>0.5224074074074074</v>
+        <v>0.5200694444444445</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>9:59</t>
+          <t>8:21</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2024/09/04</t>
+          <t>2024/09/03</t>
         </is>
       </c>
     </row>
@@ -1168,19 +1168,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>0.524375</v>
+        <v>0.5224074074074074</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>0.5330092592592592</v>
+        <v>0.5306481481481482</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2024/09/04</t>
+          <t>2024/09/03</t>
         </is>
       </c>
     </row>
@@ -1189,19 +1189,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="n">
+        <v>0.5319560185185185</v>
+      </c>
+      <c r="C37" s="1" t="n">
         <v>0.5385532407407407</v>
       </c>
-      <c r="C37" s="1" t="n">
-        <v>0.544212962962963</v>
-      </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>8:09</t>
+          <t>9:30</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2024/09/04</t>
+          <t>2024/09/03</t>
         </is>
       </c>
     </row>
@@ -1210,19 +1210,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>0.5945949074074074</v>
+        <v>0.5418055555555555</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>0.6007638888888889</v>
+        <v>0.5503587962962962</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>8:53</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2024/09/04</t>
+          <t>2024/09/03</t>
         </is>
       </c>
     </row>
@@ -1231,19 +1231,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>0.6353935185185186</v>
+        <v>0.5945949074074074</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>0.661238425925926</v>
+        <v>0.6007638888888889</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>37:13</t>
+          <t>8:53</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2024/09/04</t>
+          <t>2024/09/03</t>
         </is>
       </c>
     </row>
@@ -1252,19 +1252,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>0.6628587962962963</v>
+        <v>0.6347800925925926</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>0.5027083333333333</v>
+        <v>0.6403703703703704</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1209:23</t>
+          <t>8:03</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2024/09/04</t>
+          <t>2024/09/03</t>
         </is>
       </c>
     </row>
@@ -1273,19 +1273,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>0.5076620370370371</v>
+        <v>0.661238425925926</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>0.5164004629629629</v>
+        <v>0.6684606481481481</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2024/09/05</t>
+          <t>2024/09/03</t>
         </is>
       </c>
     </row>
@@ -1294,19 +1294,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>0.5224074074074074</v>
+        <v>0.5016319444444445</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>0.5306481481481482</v>
+        <v>0.5076620370370371</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>8:41</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2024/09/05</t>
+          <t>2024/09/04</t>
         </is>
       </c>
     </row>
@@ -1315,19 +1315,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>0.5330092592592592</v>
+        <v>0.5142708333333333</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>0.5418055555555555</v>
+        <v>0.5200694444444445</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>12:40</t>
+          <t>8:21</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2024/09/05</t>
+          <t>2024/09/04</t>
         </is>
       </c>
     </row>
@@ -1336,19 +1336,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>0.544212962962963</v>
+        <v>0.5224074074074074</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>0.5950462962962964</v>
+        <v>0.5306481481481482</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>73:12</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2024/09/05</t>
+          <t>2024/09/04</t>
         </is>
       </c>
     </row>
@@ -1357,19 +1357,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>0.6007638888888889</v>
+        <v>0.5319560185185185</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>0.6371875</v>
+        <v>0.5385532407407407</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>52:27</t>
+          <t>9:30</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2024/09/05</t>
+          <t>2024/09/04</t>
         </is>
       </c>
     </row>
@@ -1378,17 +1378,248 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="n">
+        <v>0.5418055555555555</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>0.5503587962962962</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>12:19</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2024/09/04</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>0.5945949074074074</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>0.6007638888888889</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>8:53</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2024/09/04</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>0.6347800925925926</v>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>0.6403703703703704</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>8:03</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2024/09/04</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="n">
         <v>0.661238425925926</v>
       </c>
-      <c r="C46" s="1" t="n">
+      <c r="C49" s="1" t="n">
         <v>0.6684606481481481</v>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>10:24</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2024/09/04</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>0.5016319444444445</v>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>0.5076620370370371</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>8:41</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2024/09/05</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>0.5142708333333333</v>
+      </c>
+      <c r="C51" s="1" t="n">
+        <v>0.5200694444444445</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>8:21</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2024/09/05</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>0.5224074074074074</v>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>0.5306481481481482</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>11:52</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2024/09/05</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>0.5319560185185185</v>
+      </c>
+      <c r="C53" s="1" t="n">
+        <v>0.5385532407407407</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>9:30</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2024/09/05</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>0.5418055555555555</v>
+      </c>
+      <c r="C54" s="1" t="n">
+        <v>0.5503587962962962</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>12:19</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2024/09/05</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>0.5945949074074074</v>
+      </c>
+      <c r="C55" s="1" t="n">
+        <v>0.6007638888888889</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>8:53</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2024/09/05</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>0.6347800925925926</v>
+      </c>
+      <c r="C56" s="1" t="n">
+        <v>0.6403703703703704</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>8:03</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2024/09/05</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>0.661238425925926</v>
+      </c>
+      <c r="C57" s="1" t="n">
+        <v>0.6684606481481481</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>10:24</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
         <is>
           <t>2024/09/05</t>
         </is>
